--- a/数据整理/stocks/A股/深证主板/000528-柳工.xlsx
+++ b/数据整理/stocks/A股/深证主板/000528-柳工.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006038</t>
+          <t>001707</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成景恒混合C</t>
+          <t>诺安高端制造股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.86</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.68</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001707</t>
+          <t>167705</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安高端制造股票</t>
+          <t>德邦量化新锐股票(LOF) A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>83.94</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>167705</t>
+          <t>006038</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>德邦量化新锐股票(LOF) A</t>
+          <t>大成景恒混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>92.31</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.17</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -688,15 +758,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>14.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.33</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.89</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>512260</t>
+          <t>519677</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安中证500行业中性低波动ETF</t>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>98.03</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -744,15 +834,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>90.27</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.43</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006038</t>
+          <t>512260</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成景恒混合C</t>
+          <t>华安中证500行业中性低波动ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.27</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -790,26 +900,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519677</t>
+          <t>006038</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+          <t>大成景恒混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000528-柳工.xlsx
+++ b/数据整理/stocks/A股/深证主板/000528-柳工.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006038</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成景恒混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000528-柳工.xlsx
+++ b/数据整理/stocks/A股/深证主板/000528-柳工.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1144,4 +1145,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景恒混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000528-柳工.xlsx
+++ b/数据整理/stocks/A股/深证主板/000528-柳工.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000528-柳工.xlsx
+++ b/数据整理/stocks/A股/深证主板/000528-柳工.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1317,14 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -1333,14 +1376,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>006038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景恒混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.27</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -1349,14 +1482,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="5">
@@ -1365,13 +1498,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000528-柳工.xlsx
+++ b/数据整理/stocks/A股/深证主板/000528-柳工.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1419,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,17 +1431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1450,14 +1471,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1466,14 +1509,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>006038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景恒混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -1482,14 +1615,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.27</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -1498,14 +1631,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="6">
@@ -1514,13 +1647,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000528-柳工.xlsx
+++ b/数据整理/stocks/A股/深证主板/000528-柳工.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,243 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001707</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安高端制造股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0409</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>090019</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成景恒混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.86</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0121</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>167705</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006038</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成景恒混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.86</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>167706</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -702,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -753,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003318</t>
+          <t>090019</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城中证500行业中性低波动指数</t>
+          <t>大成景恒混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.66</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1305</t>
+          <t>0.0460</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -791,150 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519677</t>
+          <t>006038</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+          <t>大成景恒混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0312</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>090019</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成景恒混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.27</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>512260</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安中证500行业中性低波动ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.03</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006038</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成景恒混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.27</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,7 +741,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -999,36 +771,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000978</t>
+          <t>090019</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城量化精选股票</t>
+          <t>大成景恒混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.77</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1543</t>
+          <t>0.0125</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1037,112 +809,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006682</t>
+          <t>006038</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中证500指数增强</t>
+          <t>大成景恒混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1002</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
         <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>090019</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成景恒混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.12</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0133</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006038</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成景恒混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1288,7 +984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1005,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1339,36 +1035,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>090019</t>
+          <t>000978</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成景恒混合A</t>
+          <t>景顺长城量化精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>92.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0125</t>
+          <t>0.1543</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1377,36 +1073,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>006038</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>大成景恒混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1420,7 +1192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1441,7 +1213,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1471,36 +1243,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>090019</t>
+          <t>003318</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成景恒混合A</t>
+          <t>景顺长城中证500行业中性低波动指数</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>14.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>94.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0460</t>
+          <t>0.1305</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1509,36 +1281,150 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>006038</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>大成景恒混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1552,128 +1438,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>167705</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006038</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成景恒混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.06</v>
+          <t>167706</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000528-柳工.xlsx
+++ b/数据整理/stocks/A股/深证主板/000528-柳工.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.27</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0460</t>
+          <t>0.0234</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +694,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>006038</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>大成景恒混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -781,26 +874,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0125</t>
+          <t>0.0460</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -819,26 +912,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -873,7 +966,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -913,17 +1006,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -932,7 +1025,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -951,26 +1044,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -979,6 +1072,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景恒混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1186,7 +1411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1432,7 +1657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000528-柳工.xlsx
+++ b/数据整理/stocks/A股/深证主板/000528-柳工.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.27</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景恒混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -800,138 +949,6 @@
       </c>
       <c r="H5" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>090019</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成景恒混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0460</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006038</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成景恒混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1006,26 +1023,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0125</t>
+          <t>0.0460</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1044,26 +1061,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1115,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1138,17 +1155,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1157,7 +1174,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1176,26 +1193,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1204,6 +1221,138 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景恒混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1411,7 +1560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1657,7 +1806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
